--- a/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>AGNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,158 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2920000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1402000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1365000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1122000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>684000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>280000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1976000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1952000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1135200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2149000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1173000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>524000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>446000</v>
       </c>
       <c r="G9" s="3">
         <v>446000</v>
       </c>
       <c r="H9" s="3">
+        <v>446000</v>
+      </c>
+      <c r="I9" s="3">
         <v>491000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>672000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>625000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>339400</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E10" s="3">
         <v>229000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>841000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>676000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>238000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-211000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1304000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1327000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>795800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,8 +829,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,9 +859,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -876,9 +892,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -906,9 +925,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -936,9 +958,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -948,68 +973,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2232000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1273000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>594000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>499000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>469000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>513000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>704000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>656000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>358500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>688000</v>
+      </c>
+      <c r="E18" s="3">
         <v>129000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>771000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>623000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>215000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-233000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1272000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1296000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>776700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1022,8 +1054,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1051,23 +1084,26 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>688000</v>
+      </c>
+      <c r="E21" s="3">
         <v>154000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>774000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>625000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
@@ -1081,9 +1117,12 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1111,39 +1150,45 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>688000</v>
+      </c>
+      <c r="E23" s="3">
         <v>129000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>771000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>623000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>215000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-233000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1272000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1296000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>776700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1156,24 +1201,27 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>13000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1201,69 +1249,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>688000</v>
+      </c>
+      <c r="E26" s="3">
         <v>129000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>771000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>623000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>215000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-233000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1259000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1277000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>770500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E27" s="3">
         <v>93000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>733000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>595000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>187000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-256000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1245000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1267000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>770500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1291,9 +1348,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1321,9 +1381,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1351,9 +1414,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1381,9 +1447,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1411,39 +1480,45 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E33" s="3">
         <v>93000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>733000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>595000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>187000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-256000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1245000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1267000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>770500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1471,74 +1546,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E35" s="3">
         <v>93000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>733000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>595000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>187000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-256000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1245000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1267000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>770500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1551,8 +1635,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1565,38 +1650,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>831000</v>
+      </c>
+      <c r="E41" s="3">
         <v>921000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1046000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1208000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1110000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1720000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2143000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2430000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1367000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1624,39 +1713,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>489000</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>7737000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1713000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5457000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2533000</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>461800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1684,9 +1779,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1714,9 +1812,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1744,39 +1845,45 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>110720000</v>
+      </c>
+      <c r="E47" s="3">
         <v>106146000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>68070000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>46681000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>52531000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>59243000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>70000000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>97063000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54784000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1804,9 +1911,12 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1814,13 +1924,13 @@
         <v>526000</v>
       </c>
       <c r="E49" s="3">
+        <v>526000</v>
+      </c>
+      <c r="F49" s="3">
         <v>551000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>554000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -1834,9 +1944,12 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1864,9 +1977,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1894,39 +2010,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E52" s="3">
         <v>599000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>317000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1281000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>713000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>399000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>336000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1954,39 +2076,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113082000</v>
+      </c>
+      <c r="E54" s="3">
         <v>109241000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>70376000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56880000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57021000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>67766000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>76255000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100453000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57972000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1999,8 +2127,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2013,98 +2142,108 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E57" s="3">
         <v>518000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>299000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>211000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>61000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>492000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>132000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>86857000</v>
+      </c>
+      <c r="E58" s="3">
         <v>75717000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>50296000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>40895000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>45507000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>50296000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>63533000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>75415000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47735000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2658000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1310000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>175000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>256000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>928000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>353000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>983000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2233000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2132,39 +2271,45 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2553000</v>
+      </c>
+      <c r="E61" s="3">
         <v>275000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>357000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>460000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>595000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>761000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>910000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2192,9 +2337,12 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2222,9 +2370,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2252,9 +2403,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2282,39 +2436,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102041000</v>
+      </c>
+      <c r="E66" s="3">
         <v>99335000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61622000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>49524000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49050000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>58338000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>67558000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>89557000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>51760000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2327,8 +2487,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2356,9 +2517,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2386,20 +2550,23 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>484000</v>
+        <v>932000</v>
       </c>
       <c r="E70" s="3">
         <v>484000</v>
       </c>
       <c r="F70" s="3">
-        <v>336000</v>
+        <v>484000</v>
       </c>
       <c r="G70" s="3">
         <v>336000</v>
@@ -2408,17 +2575,20 @@
         <v>336000</v>
       </c>
       <c r="I70" s="3">
-        <v>167000</v>
+        <v>336000</v>
       </c>
       <c r="J70" s="3">
         <v>167000</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+        <v>167000</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2446,39 +2616,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3886000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3433000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2518000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2350000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1674000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-497000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-289000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2506,9 +2682,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2536,9 +2715,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2566,39 +2748,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10109000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9422000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8270000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7020000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7635000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9092000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8530000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10729000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6212000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2626,74 +2814,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E81" s="3">
         <v>93000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>733000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>595000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>187000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-256000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1245000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1267000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>770500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2706,22 +2903,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>25000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2000</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
@@ -2735,9 +2933,12 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2765,9 +2966,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2795,9 +2999,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2825,9 +3032,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2855,9 +3065,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2885,39 +3098,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1180000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1113000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1260000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1352000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1428000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1622000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2501000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2321000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1070000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2930,8 +3149,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2959,9 +3179,12 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2989,9 +3212,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3019,39 +3245,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14218000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27936000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11061000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3201000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4093000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12349000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8875000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39572000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3064,38 +3296,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1139000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-974000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-795000</v>
-      </c>
       <c r="F96" s="3">
+        <v>-1590000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-799000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-902000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1094000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1659000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-664000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3123,9 +3359,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3153,9 +3392,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3183,39 +3425,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12800000</v>
+      </c>
+      <c r="E100" s="3">
         <v>26980000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9882000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5662000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6131000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14394000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11663000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>39696000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3237,43 +3485,49 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E102" s="3">
         <v>157000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>81000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1109000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-610000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-423000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-287000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1063000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1194000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>AGNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,171 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2920000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1402000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1365000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1122000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>684000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>280000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1976000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1952000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1135200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>674000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2149000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1173000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>524000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>446000</v>
       </c>
       <c r="H9" s="3">
         <v>446000</v>
       </c>
       <c r="I9" s="3">
+        <v>446000</v>
+      </c>
+      <c r="J9" s="3">
         <v>491000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>672000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>625000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>339400</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="E10" s="3">
         <v>771000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>229000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>841000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>676000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>238000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-211000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1304000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1327000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>795800</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,8 +843,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,9 +876,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -895,9 +912,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,9 +948,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -961,9 +984,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -974,74 +1000,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>767000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2232000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1273000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>594000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>499000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>469000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>513000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>704000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>656000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>358500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="E18" s="3">
         <v>688000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>129000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>771000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>623000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>215000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-233000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1272000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1296000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>776700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1055,8 +1088,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1087,26 +1121,29 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="E21" s="3">
         <v>688000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>154000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>774000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>625000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1120,9 +1157,12 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1153,56 +1193,62 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="E23" s="3">
         <v>688000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>129000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>771000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>623000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>215000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-233000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1272000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1296000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>776700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1211,17 +1257,20 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>13000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1252,75 +1301,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="E26" s="3">
         <v>688000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>129000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>771000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>623000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>215000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-233000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1259000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1277000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>770500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-362000</v>
+      </c>
+      <c r="E27" s="3">
         <v>628000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>93000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>733000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>595000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>187000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-256000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1245000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1267000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>770500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1351,9 +1409,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1384,9 +1445,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1417,9 +1481,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1450,9 +1517,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1483,42 +1553,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-362000</v>
+      </c>
+      <c r="E33" s="3">
         <v>628000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>93000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>733000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>595000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>187000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-256000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1245000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1267000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>770500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1549,80 +1625,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-362000</v>
+      </c>
+      <c r="E35" s="3">
         <v>628000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>93000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>733000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>595000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>187000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-256000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1245000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1267000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>770500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1636,8 +1721,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1651,41 +1737,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1017000</v>
+      </c>
+      <c r="E41" s="3">
         <v>831000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>921000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1046000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1208000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1110000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1720000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2143000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2430000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1367000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1716,42 +1806,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>489000</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>7737000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1713000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5457000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2533000</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>461800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1782,9 +1878,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1815,9 +1914,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1848,42 +1950,48 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>78162000</v>
+      </c>
+      <c r="E47" s="3">
         <v>110720000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>106146000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>68070000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>46681000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>52531000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>59243000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>70000000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>97063000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54784000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1914,9 +2022,12 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1927,13 +2038,13 @@
         <v>526000</v>
       </c>
       <c r="F49" s="3">
+        <v>526000</v>
+      </c>
+      <c r="G49" s="3">
         <v>551000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>554000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -1947,9 +2058,12 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1980,9 +2094,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2013,42 +2130,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="E52" s="3">
         <v>451000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>599000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>317000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1281000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>713000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>101000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>399000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>336000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2079,42 +2202,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81817000</v>
+      </c>
+      <c r="E54" s="3">
         <v>113082000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>109241000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>70376000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>56880000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57021000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67766000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>76255000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100453000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57972000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2128,8 +2257,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2143,107 +2273,117 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E57" s="3">
         <v>424000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>518000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>299000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>211000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>492000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>132000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>52366000</v>
+      </c>
+      <c r="E58" s="3">
         <v>86857000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>75717000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>50296000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>40895000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>45507000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>50296000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>63533000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>75415000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47735000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6247000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2658000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1310000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>175000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>256000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>928000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>353000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>983000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2233000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2274,42 +2414,48 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2553000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>275000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>357000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>460000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>595000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>761000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>910000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2340,9 +2486,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2373,9 +2522,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2406,9 +2558,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2439,42 +2594,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>70738000</v>
+      </c>
+      <c r="E66" s="3">
         <v>102041000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>99335000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61622000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49524000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49050000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>58338000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>67558000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>89557000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51760000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2488,8 +2649,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2520,9 +2682,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2553,23 +2718,26 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="E70" s="3">
         <v>932000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>484000</v>
       </c>
       <c r="F70" s="3">
         <v>484000</v>
       </c>
       <c r="G70" s="3">
-        <v>336000</v>
+        <v>484000</v>
       </c>
       <c r="H70" s="3">
         <v>336000</v>
@@ -2578,17 +2746,20 @@
         <v>336000</v>
       </c>
       <c r="J70" s="3">
-        <v>167000</v>
+        <v>336000</v>
       </c>
       <c r="K70" s="3">
         <v>167000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+        <v>167000</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2619,42 +2790,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5106000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3886000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3433000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2518000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2350000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1674000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-497000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-289000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2685,9 +2862,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2718,9 +2898,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2751,42 +2934,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9590000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10109000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9422000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8270000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7020000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7635000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9092000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8530000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10729000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6212000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2817,80 +3006,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-362000</v>
+      </c>
+      <c r="E81" s="3">
         <v>628000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>93000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>733000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>595000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>187000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-256000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1245000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1267000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>770500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2904,8 +3102,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2913,16 +3112,16 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>25000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
@@ -2936,9 +3135,12 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2969,9 +3171,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3002,9 +3207,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3035,9 +3243,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3068,9 +3279,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3101,42 +3315,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1747000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1180000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1113000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1260000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1352000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1428000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1622000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2501000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2321000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1070000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3150,8 +3370,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3182,9 +3403,12 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3215,9 +3439,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3248,42 +3475,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>36525000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14218000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27936000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11061000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3201000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4093000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12349000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8875000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39572000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3297,41 +3530,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-970000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1139000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-974000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1590000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-799000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-902000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1094000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1659000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-664000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3362,9 +3599,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3395,9 +3635,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3428,42 +3671,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-37230000</v>
+      </c>
+      <c r="E100" s="3">
         <v>12800000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>26980000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9882000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5662000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6131000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14394000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11663000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>39696000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3488,46 +3737,52 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1042000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-238000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>157000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>81000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1109000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-610000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-423000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-287000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1063000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1194000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>AGNC</t>
   </si>
@@ -732,7 +732,7 @@
         <v>2920000</v>
       </c>
       <c r="F8" s="3">
-        <v>1402000</v>
+        <v>1360000</v>
       </c>
       <c r="G8" s="3">
         <v>1365000</v>
@@ -804,7 +804,7 @@
         <v>771000</v>
       </c>
       <c r="F10" s="3">
-        <v>229000</v>
+        <v>187000</v>
       </c>
       <c r="G10" s="3">
         <v>841000</v>
@@ -921,26 +921,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-42000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>2232000</v>
       </c>
       <c r="F17" s="3">
-        <v>1273000</v>
+        <v>1231000</v>
       </c>
       <c r="G17" s="3">
         <v>594000</v>

--- a/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>AGNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,184 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>912000</v>
+      </c>
+      <c r="E8" s="3">
         <v>501000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2920000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1360000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1365000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1122000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>684000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>280000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1976000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1952000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1135200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E9" s="3">
         <v>674000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2149000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1173000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>524000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>446000</v>
       </c>
       <c r="I9" s="3">
         <v>446000</v>
       </c>
       <c r="J9" s="3">
+        <v>446000</v>
+      </c>
+      <c r="K9" s="3">
         <v>491000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>672000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>625000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>339400</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>837000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-173000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>771000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>187000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>841000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>676000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>238000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-211000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1304000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1327000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>795800</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -844,8 +857,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,9 +893,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -915,9 +932,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -927,11 +947,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-42000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -942,8 +962,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -951,9 +971,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -987,9 +1010,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1001,80 +1027,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E17" s="3">
         <v>767000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2232000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1231000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>594000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>499000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>469000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>513000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>704000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>656000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>358500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-266000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>688000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>129000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>771000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>623000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>215000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-233000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1272000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1296000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>776700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1089,8 +1122,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1124,29 +1158,32 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-266000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>688000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>154000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>774000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>625000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1160,9 +1197,12 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1196,45 +1236,51 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-266000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>688000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>129000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>771000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>623000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>215000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-233000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1272000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1296000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>776700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1260,17 +1306,20 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>13000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1304,81 +1353,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-266000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>688000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>129000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>771000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>623000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>215000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-233000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1259000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1277000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>770500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>649000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-362000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>628000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>93000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>733000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>595000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>187000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-256000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1245000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1267000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>770500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1412,9 +1470,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1448,9 +1509,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1484,9 +1548,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1520,9 +1587,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1556,45 +1626,51 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>649000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-362000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>628000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>93000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>733000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>595000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>187000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-256000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1245000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1267000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>770500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1628,86 +1704,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>649000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-362000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>628000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>93000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>733000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>595000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>187000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-256000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1245000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1267000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>770500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1722,8 +1807,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1738,44 +1824,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>998000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1017000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>831000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>921000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1046000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1208000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1110000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1720000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2143000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2430000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1367000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1809,45 +1899,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>210000</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>489000</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>7737000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1713000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5457000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2533000</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>461800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1881,9 +1977,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1917,9 +2016,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1953,45 +2055,51 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>65367000</v>
+      </c>
+      <c r="E47" s="3">
         <v>78162000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>110720000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>106146000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>68070000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>46681000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>52531000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>59243000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>70000000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>97063000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>54784000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2025,9 +2133,12 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2041,13 +2152,13 @@
         <v>526000</v>
       </c>
       <c r="G49" s="3">
+        <v>526000</v>
+      </c>
+      <c r="H49" s="3">
         <v>551000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>554000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -2061,9 +2172,12 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2097,9 +2211,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2133,45 +2250,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1307000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>451000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>599000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>317000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>74000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1281000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>713000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>101000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>399000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>336000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2205,45 +2328,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>68149000</v>
+      </c>
+      <c r="E54" s="3">
         <v>81817000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>113082000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>109241000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70376000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>56880000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57021000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67766000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>76255000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100453000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57972000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2258,8 +2387,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2274,116 +2404,126 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E57" s="3">
         <v>219000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>424000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>518000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>299000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>211000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>492000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>132000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47381000</v>
+      </c>
+      <c r="E58" s="3">
         <v>52366000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>86857000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>75717000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>50296000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>40895000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>45507000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>50296000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>63533000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>75415000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>47735000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6247000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2658000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1310000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>175000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>256000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>928000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>353000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>983000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2233000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2417,45 +2557,51 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E61" s="3">
         <v>177000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2553000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>275000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>357000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>460000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>595000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>761000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>910000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2489,9 +2635,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2525,9 +2674,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2561,9 +2713,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2597,45 +2752,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57858000</v>
+      </c>
+      <c r="E66" s="3">
         <v>70738000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102041000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>99335000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61622000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49524000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49050000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>58338000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>67558000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89557000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51760000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2650,8 +2811,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2685,9 +2847,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2721,9 +2886,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2731,16 +2899,16 @@
         <v>1489000</v>
       </c>
       <c r="E70" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="F70" s="3">
         <v>932000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>484000</v>
       </c>
       <c r="G70" s="3">
         <v>484000</v>
       </c>
       <c r="H70" s="3">
-        <v>336000</v>
+        <v>484000</v>
       </c>
       <c r="I70" s="3">
         <v>336000</v>
@@ -2749,17 +2917,20 @@
         <v>336000</v>
       </c>
       <c r="K70" s="3">
-        <v>167000</v>
+        <v>336000</v>
       </c>
       <c r="L70" s="3">
         <v>167000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+        <v>167000</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2793,45 +2964,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5214000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5106000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3886000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3433000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2518000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2350000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1674000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-497000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-289000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2865,9 +3042,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2901,9 +3081,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2937,45 +3120,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8802000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9590000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10109000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9422000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8270000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7020000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7635000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9092000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8530000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10729000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6212000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3009,86 +3198,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>649000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-362000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>628000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>93000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>733000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>595000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>187000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-256000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1245000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1267000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>770500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3103,28 +3301,29 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>25000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3138,9 +3337,12 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3174,9 +3376,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3210,9 +3415,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3246,9 +3454,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3282,9 +3493,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3318,45 +3532,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1747000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1180000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1113000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1260000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1352000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1428000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1622000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2501000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2321000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1070000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3371,8 +3591,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3406,9 +3627,12 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3442,9 +3666,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3478,45 +3705,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3836000</v>
+      </c>
+      <c r="E94" s="3">
         <v>36525000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14218000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27936000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11061000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3201000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4093000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12349000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8875000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-39572000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3531,44 +3764,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-860000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-970000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1139000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-974000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1590000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-799000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-902000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1094000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1659000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-664000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3602,9 +3839,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3638,9 +3878,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3674,45 +3917,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6175000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-37230000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12800000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>26980000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9882000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5662000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6131000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14394000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11663000</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>39696000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3740,49 +3989,55 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-799000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1042000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-238000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>157000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>81000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1109000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-610000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-423000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-287000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1063000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1194000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>AGNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,184 +665,197 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>912000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>501000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2920000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1360000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1365000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1122000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>684000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>280000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1976000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1952000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1135200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E9" s="3">
         <v>75000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>674000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2149000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1173000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>524000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>446000</v>
       </c>
       <c r="J9" s="3">
         <v>446000</v>
       </c>
       <c r="K9" s="3">
+        <v>446000</v>
+      </c>
+      <c r="L9" s="3">
         <v>491000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>672000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>625000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>339400</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>837000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-173000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>771000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>187000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>841000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>676000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>238000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-211000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1304000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1327000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>795800</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,8 +871,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,9 +910,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -935,9 +952,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -950,12 +970,12 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-42000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
@@ -965,8 +985,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -974,9 +994,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1013,9 +1036,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1028,86 +1054,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>699000</v>
+      </c>
+      <c r="E17" s="3">
         <v>163000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>767000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2232000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1231000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>594000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>499000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>469000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>513000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>704000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>656000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>358500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>749000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-266000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>688000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>129000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>771000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>623000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>215000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-233000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1272000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1296000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>776700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1123,13 +1156,14 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1161,33 +1195,36 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>-266000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>688000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>154000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>774000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>625000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1200,9 +1237,12 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,48 +1279,54 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1190000</v>
+      </c>
+      <c r="E23" s="3">
         <v>749000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-266000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>688000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>129000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>771000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>623000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>215000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-233000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1272000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1296000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>776700</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1309,17 +1355,20 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>13000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1356,87 +1405,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1190000</v>
+      </c>
+      <c r="E26" s="3">
         <v>749000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-266000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>688000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>129000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>771000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>623000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>215000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-233000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1259000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1277000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>770500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1295000</v>
+      </c>
+      <c r="E27" s="3">
         <v>649000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-362000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>628000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>93000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>733000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>595000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>187000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-256000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1245000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1267000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>770500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1473,9 +1531,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1512,9 +1573,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1551,9 +1615,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1590,14 +1657,17 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1629,48 +1699,54 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1295000</v>
+      </c>
+      <c r="E33" s="3">
         <v>649000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-362000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>628000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>93000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>733000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>595000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>187000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-256000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1245000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1267000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>770500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1707,92 +1783,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1295000</v>
+      </c>
+      <c r="E35" s="3">
         <v>649000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-362000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>628000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>93000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>733000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>595000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>187000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-256000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1245000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1267000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>770500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1808,8 +1893,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1825,47 +1911,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1018000</v>
+      </c>
+      <c r="E41" s="3">
         <v>998000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1017000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>831000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>921000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1046000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1208000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1110000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1720000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2143000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2430000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1367000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1902,48 +1992,54 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>210000</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>489000</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>7737000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1713000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5457000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2533000</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>461800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1980,9 +2076,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2019,9 +2118,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2058,48 +2160,54 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>47904000</v>
+      </c>
+      <c r="E47" s="3">
         <v>65367000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>78162000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>110720000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>106146000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>68070000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>46681000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>52531000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>59243000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>70000000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>97063000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54784000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2136,9 +2244,12 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2155,14 +2266,14 @@
         <v>526000</v>
       </c>
       <c r="H49" s="3">
+        <v>526000</v>
+      </c>
+      <c r="I49" s="3">
         <v>551000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>554000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2175,9 +2286,12 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2214,9 +2328,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2253,48 +2370,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1316000</v>
+      </c>
+      <c r="E52" s="3">
         <v>527000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1307000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>451000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>599000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>317000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>74000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1281000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>713000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>101000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>399000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>336000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2331,48 +2454,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51748000</v>
+      </c>
+      <c r="E54" s="3">
         <v>68149000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>81817000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>113082000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>109241000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>70376000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>56880000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57021000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67766000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>76255000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100453000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57972000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2388,8 +2517,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2405,125 +2535,135 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E57" s="3">
         <v>400000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>219000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>424000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>518000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>299000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>211000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>61000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>492000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>132000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>36262000</v>
+      </c>
+      <c r="E58" s="3">
         <v>47381000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>52366000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>86857000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>75717000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>50296000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>40895000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>45507000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>50296000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>63533000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>75415000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>47735000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E59" s="3">
         <v>168000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6247000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2658000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1310000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>175000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>66000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>256000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>928000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>353000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>983000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2233000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2560,48 +2700,54 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E61" s="3">
         <v>126000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>177000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2553000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>275000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>357000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>460000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>595000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>761000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>910000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2638,9 +2784,12 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2677,9 +2826,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2716,9 +2868,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2755,48 +2910,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43878000</v>
+      </c>
+      <c r="E66" s="3">
         <v>57858000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70738000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102041000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>99335000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61622000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49524000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49050000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58338000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>67558000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89557000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51760000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2812,8 +2973,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2850,9 +3012,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2889,29 +3054,32 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1489000</v>
+        <v>1634000</v>
       </c>
       <c r="E70" s="3">
         <v>1489000</v>
       </c>
       <c r="F70" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="G70" s="3">
         <v>932000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>484000</v>
       </c>
       <c r="H70" s="3">
         <v>484000</v>
       </c>
       <c r="I70" s="3">
-        <v>336000</v>
+        <v>484000</v>
       </c>
       <c r="J70" s="3">
         <v>336000</v>
@@ -2920,17 +3088,20 @@
         <v>336000</v>
       </c>
       <c r="L70" s="3">
-        <v>167000</v>
+        <v>336000</v>
       </c>
       <c r="M70" s="3">
         <v>167000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+        <v>167000</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2967,48 +3138,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7284000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5214000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5106000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3886000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3433000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2518000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2350000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1674000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-497000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-289000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3045,9 +3222,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3084,9 +3264,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3123,48 +3306,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6236000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8802000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9590000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10109000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9422000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8270000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7020000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7635000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9092000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8530000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10729000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6212000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3201,92 +3390,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1295000</v>
+      </c>
+      <c r="E81" s="3">
         <v>649000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-362000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>628000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>93000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>733000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>595000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>187000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-256000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1245000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1267000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>770500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3302,32 +3500,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>25000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3340,9 +3539,12 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3379,9 +3581,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3418,9 +3623,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3457,9 +3665,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3496,9 +3707,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3535,48 +3749,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1013000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1540000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1747000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1180000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1113000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1260000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1352000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1428000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1622000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2501000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2321000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1070000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3592,8 +3812,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3630,9 +3851,12 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3669,9 +3893,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3708,48 +3935,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11188000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3836000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>36525000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14218000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27936000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11061000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3201000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4093000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12349000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>8875000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-39572000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3765,47 +3998,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-869000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-860000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-970000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1139000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-974000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1590000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-799000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-902000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1094000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1659000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-664000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3842,9 +4079,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3881,9 +4121,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3920,48 +4163,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11392000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6175000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-37230000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12800000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>26980000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9882000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5662000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6131000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14394000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11663000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>39696000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3992,52 +4241,58 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>809000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-799000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1042000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-238000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>157000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>81000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1109000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-610000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-423000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-287000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1063000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1194000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGNC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>AGNC</t>
   </si>
@@ -2541,8 +2541,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>486000</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
         <v>400000</v>
